--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="694">
   <si>
     <t>parent_id</t>
   </si>
@@ -1580,6 +1580,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>nanoPOTS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -1598,6 +1604,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>snATAC-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -1610,10 +1622,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>RNAseq (sc/sn)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000213</t>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
   </si>
   <si>
     <t>CosMx</t>
@@ -1664,6 +1676,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>snRNA-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -1712,6 +1730,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
   </si>
   <si>
+    <t>scATAC-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
   </si>
   <si>
@@ -1730,12 +1754,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
   </si>
   <si>
-    <t>ATACseq (sc/sn)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000211</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -2261,7 +2279,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:17:15-07:00</t>
+    <t>2023-08-04T07:37:36-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2421,63 +2439,66 @@
         <v>455</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2">
+      <c r="H2" t="s">
+        <v>510</v>
+      </c>
       <c r="Z2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2510,7 @@
       <formula1>'operator'!$A$1:$A$203</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -2555,42 +2576,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2608,18 +2629,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -2637,34 +2658,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B1" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -2682,34 +2703,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B2" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B3" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -2733,30 +2754,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="D1" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4584,7 +4605,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4852,6 +4873,30 @@
       </c>
       <c r="B33" t="s">
         <v>521</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -4869,90 +4914,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B10" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B11" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4970,18 +5015,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4999,114 +5044,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5124,242 +5169,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B10" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B23" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B24" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B25" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B26" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B27" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B28" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5377,42 +5422,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -2279,7 +2279,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:37:36-07:00</t>
+    <t>2023-08-11T13:13:29-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2524,14 +2524,14 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$30</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -2547,15 +2547,15 @@
     <dataValidation type="list" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'scan_direction'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="W2:W1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="692">
   <si>
     <t>parent_id</t>
   </si>
@@ -1823,12 +1823,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>N-glycan</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_59520</t>
-  </si>
-  <si>
     <t>Endogenous fluorophores</t>
   </si>
   <si>
@@ -2279,7 +2273,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:13:29-07:00</t>
+    <t>2023-09-08T20:51:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2442,55 +2436,55 @@
         <v>528</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O1" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="Q1" t="s" s="1">
         <v>657</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>658</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>659</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>660</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>661</v>
       </c>
-      <c r="T1" t="s" s="1">
-        <v>662</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>663</v>
-      </c>
       <c r="V1" t="s" s="1">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="W1" t="s" s="1">
+        <v>679</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="Y1" t="s" s="1">
         <v>681</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>682</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>683</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>684</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2492,7 @@
         <v>510</v>
       </c>
       <c r="Z2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2507,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2536,7 +2530,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$5</formula1>
+      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_image_preprocessing_required'!$A$1:$A$2</formula1>
@@ -2568,7 +2562,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2596,22 +2590,6 @@
       </c>
       <c r="B3" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2629,18 +2607,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -2658,34 +2636,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -2703,34 +2681,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -2754,30 +2732,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" t="s">
         <v>686</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>688</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>690</v>
-      </c>
-      <c r="D1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" t="s">
         <v>687</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>689</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>691</v>
-      </c>
-      <c r="D2" t="s">
-        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4906,7 +4884,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4990,14 +4968,6 @@
       </c>
       <c r="B10" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B11" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -5015,18 +4985,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5044,114 +5014,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5169,242 +5139,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5422,42 +5392,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -31,11 +31,11 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
-or suspension) used to perform this assay. For example, for a RNAseq assay, the
-parent would be the suspension, whereas this would be the HuBMAP ID of a section
-for one of the imaging assays. If an assay comes from multiple parent samples
-then this should be a comma separated list.</t>
+        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
+perform this assay. For example, for a RNAseq assay, the parent would be the
+suspension, whereas this would be the HuBMAP ID of a section for one of the
+imaging assays. If an assay comes from multiple parent samples then this should
+be a comma separated list. Example: HBM765.TRHD.452</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -54,7 +54,8 @@
 procurment and preparation. For example for an imaging assay, the protocol might
 include staining of a section through the creation of an OME-TIFF file. In this
 case the protocol would include any image processing steps required to create
-the OME-TIFF file.</t>
+the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -70,7 +71,8 @@
     <comment ref="F1" authorId="1">
       <text>
         <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay. The CODEX analyte is protein.</t>
+detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
+protein.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -186,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="247">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -224,6 +226,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -236,30 +244,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>snATAC-seq</t>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
     <t>Molecular Cartography</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>CosMx</t>
   </si>
   <si>
@@ -302,114 +310,108 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
-    <t>snRNA-seq</t>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>Visium</t>
   </si>
   <si>
@@ -425,6 +427,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -596,18 +604,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -626,6 +640,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -668,36 +694,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -914,7 +922,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T15:13:11-07:00</t>
+    <t>2023-10-06T19:32:01-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1057,63 +1065,63 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1130,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1185,42 +1193,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1238,42 +1246,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1297,30 +1305,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1715,6 +1723,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1732,12 +1748,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1755,114 +1771,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1880,258 +1896,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2149,42 +2165,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2202,26 +2218,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2239,12 +2255,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -922,7 +922,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:32:01-07:00</t>
+    <t>2023-10-11T09:23:40-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -31,11 +31,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -188,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -220,6 +221,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -280,12 +287,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -523,12 +524,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -541,6 +536,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -610,12 +611,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -748,6 +761,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -922,7 +947,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-11T09:23:40-07:00</t>
+    <t>2023-10-27T18:05:54-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1074,46 +1099,46 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -1121,7 +1146,7 @@
         <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1164,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1193,42 +1218,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1246,42 +1271,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1305,30 +1330,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2148,6 +2173,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2165,42 +2222,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2218,26 +2275,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="257">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -215,12 +215,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -323,12 +317,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -347,6 +335,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -593,6 +587,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -647,6 +647,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -947,7 +953,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:05:54-07:00</t>
+    <t>2023-11-02T15:43:42-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1087,72 +1093,72 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1164,7 +1170,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1218,42 +1224,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1271,42 +1277,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1330,30 +1336,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,14 +1653,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1672,90 +1670,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1773,12 +1771,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1796,114 +1794,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1911,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1921,290 +1919,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2222,42 +2236,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2275,26 +2289,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2312,12 +2326,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -953,7 +953,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:43:42-07:00</t>
+    <t>2023-11-07T20:03:57-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="253">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -221,18 +221,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -245,22 +245,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -287,12 +281,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -305,6 +293,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -317,18 +311,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -341,10 +323,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -359,10 +341,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -377,12 +359,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -401,18 +401,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -953,7 +941,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:03:57-08:00</t>
+    <t>2023-11-15T17:12:15-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1093,72 +1081,72 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>223</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>224</v>
-      </c>
       <c r="R1" t="s" s="1">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1224,42 +1212,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1277,42 +1265,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1336,30 +1324,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>251</v>
-      </c>
-      <c r="C1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
         <v>250</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1637,22 +1625,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1670,90 +1642,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1771,12 +1743,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1794,114 +1766,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1919,306 +1891,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2236,42 +2208,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2289,26 +2261,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2326,12 +2298,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -941,7 +941,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:12:15-08:00</t>
+    <t>2023-11-24T09:42:50-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="277">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -482,6 +482,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -524,6 +536,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -560,6 +584,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -593,6 +623,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -611,18 +647,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -647,6 +707,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -707,6 +773,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -941,7 +1013,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:42:50-08:00</t>
+    <t>2024-01-29T14:10:43-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1043,28 +1115,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="30.79296875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="16.65625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="13.859375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="19.734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="17.2421875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="30.83203125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="26.5625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="17.0234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="14.875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="26.59765625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1090,57 +1162,57 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
-        <v>244</v>
+      <c r="V2" t="s" s="23">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1227,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1172,7 +1244,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_image_preprocessing_required'!$A$1:$A$2</formula1>
@@ -1211,43 +1283,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" t="s">
-        <v>222</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
+      <c r="A3" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>228</v>
+      <c r="A4" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
+      <c r="A5" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1264,43 +1336,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" t="s">
-        <v>233</v>
+      <c r="A1" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>257</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
+      <c r="A3" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
+      <c r="A4" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" t="s">
-        <v>239</v>
+      <c r="A5" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1316,38 +1388,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.29296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="81.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="70.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" t="s">
-        <v>251</v>
+      <c r="A1" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
+      <c r="A2" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1364,266 +1436,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -1641,90 +1713,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -1742,12 +1814,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -1758,122 +1830,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1883,314 +1995,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2207,43 +2375,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2260,27 +2428,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2297,12 +2465,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="299">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -299,6 +299,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -524,6 +536,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -536,6 +554,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -578,6 +602,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -617,16 +647,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -635,52 +791,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -695,18 +833,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -737,12 +875,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -755,40 +887,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -797,18 +905,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -821,36 +917,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1013,7 +1079,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:10:43-08:00</t>
+    <t>2024-04-01T14:47:08-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1153,84 +1219,84 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1284,42 +1350,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>254</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -1337,42 +1403,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1396,30 +1462,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>276</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1699,6 +1765,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1706,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1714,90 +1788,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1815,12 +1897,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1912,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1838,154 +1920,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2101,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2003,362 +2109,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2376,42 +2530,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2429,26 +2583,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2466,12 +2620,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="309">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -251,6 +251,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -347,6 +353,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -428,22 +440,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -470,27 +512,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -539,7 +569,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -647,6 +677,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -992,6 +1028,12 @@
     <t>tile_configuration</t>
   </si>
   <si>
+    <t>Row-by-row</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000138</t>
+  </si>
+  <si>
     <t>Column-by-column</t>
   </si>
   <si>
@@ -1004,24 +1046,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000122</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
     <t>Snake-by-columns</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000110</t>
   </si>
   <si>
-    <t>Row-by-row</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000138</t>
-  </si>
-  <si>
     <t>scan_direction</t>
   </si>
   <si>
@@ -1031,18 +1061,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000111</t>
   </si>
   <si>
+    <t>Right-and-up</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000141</t>
+  </si>
+  <si>
     <t>Left-and-down</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000108</t>
   </si>
   <si>
-    <t>Right-and-up</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000141</t>
-  </si>
-  <si>
     <t>Right-and-down</t>
   </si>
   <si>
@@ -1079,7 +1109,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:47:08-07:00</t>
+    <t>2024-08-03T11:40:27-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1219,75 +1249,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1296,7 +1326,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1350,42 +1380,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>268</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -1403,42 +1433,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -1462,30 +1492,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1773,6 +1803,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1780,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1788,98 +1834,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1897,12 +1967,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1920,178 +1990,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2109,410 +2179,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2530,42 +2608,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2583,26 +2661,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2620,12 +2698,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="317">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -329,6 +329,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -353,6 +359,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -428,18 +440,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -452,13 +464,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -494,24 +512,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -614,6 +632,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1109,7 +1133,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:40:27-07:00</t>
+    <t>2025-01-08T12:41:46-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1249,81 +1273,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1380,42 +1404,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1433,42 +1457,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1492,30 +1516,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1819,6 +1843,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1826,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1834,122 +1874,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1967,12 +2015,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2030,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1990,178 +2038,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2179,418 +2235,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2608,42 +2664,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2661,26 +2717,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2698,12 +2754,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -52,11 +52,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -105,8 +105,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="355">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -275,10 +275,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -377,6 +377,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -431,6 +437,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -542,40 +560,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -584,12 +668,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -602,18 +680,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -638,48 +704,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -731,6 +767,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -749,12 +791,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -767,12 +827,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -785,12 +857,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -815,6 +905,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -857,6 +953,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -935,6 +1037,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -977,6 +1085,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1133,7 +1247,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:41:46-08:00</t>
+    <t>2025-04-24T10:47:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1273,58 +1387,58 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -1332,13 +1446,13 @@
         <v>54</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1347,10 +1461,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1404,42 +1518,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -1457,42 +1571,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -1516,30 +1630,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1857,6 +1971,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1874,130 +2012,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2015,12 +2153,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,186 +2176,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2235,418 +2397,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2664,42 +2938,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2717,26 +2991,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2754,12 +3028,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="359">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -929,6 +929,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -998,7 +1010,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1247,7 +1259,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:47:19-07:00</t>
+    <t>2025-05-12T10:13:37-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1399,46 +1411,46 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -1446,7 +1458,7 @@
         <v>54</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1476,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1526,34 +1538,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1571,18 +1583,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -1595,18 +1607,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -1630,30 +1642,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2401,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2845,26 +2857,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -2921,6 +2933,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2938,42 +2966,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2991,26 +3019,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -31,156 +31,165 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>Depending on if the acquisition instrument was a microscope, slide scanner, etc.
-will indicate whether or not any level of preprocessing was required to assemble
-the image (e.g., fusing image tiles) .</t>
+        <t>Indicates whether image preprocessing is necessary based on the type of
+acquisition instrument used, such as a microscope or slide scanner. This may
+involve steps like fusing image tiles to assemble the complete image. Example:
+Yes</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>A unique ID denoting the slide used. This allows users the ability to determine
-which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+        <t>The unique identifier assigned to each slide, enabling users to determine which
+tissue sections were processed together on the same slide. It is recommended
+that data providers prefix the ID with the center name to prevent overlapping
+values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>This is how the tiles are configured for stitching.</t>
+        <t>The configuration of tiles used for stitching in the assay process. If no tile
+configuration is applicable, enter "Not applicable". Example: Row-by-row</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>This is the direction of imaging, which is required for stitching.</t>
+        <t>The direction of imaging, which is necessary for the stitching process. Example:
+Left-and-down</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>This is how many columns used in stitching. This is sometimes referred to as the
-grid size x.</t>
+        <t>The number of columns used in the stitching process of a tiled image, often
+referred to as the grid size in the x-dimension. Example: 5</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>This is the total number of raw (tiled) images captured, that are to be stitched
-together.</t>
+        <t>The total number of raw tiled images captured, which are intended to be stitched
+together. Example: 75</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>The amount of overlap between tiled images. This is the set point, where as
-during image acquisition there will be slight variations due to stage
-registration.</t>
+        <t>The intended percentage of overlap between tiled images. This value serves as
+the set point, although slight variations may occur during image acquisition due
+to stage registration. Example: 5</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -189,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="402">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -215,34 +224,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -251,36 +398,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -311,16 +428,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -329,24 +440,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -377,18 +476,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -401,12 +488,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -419,34 +500,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -584,6 +647,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -698,12 +773,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -737,6 +824,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -845,6 +938,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -923,6 +1022,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -959,6 +1064,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1049,6 +1160,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1073,6 +1187,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1085,6 +1211,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1109,6 +1241,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1259,7 +1397,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:13:37-07:00</t>
+    <t>2025-10-23T10:17:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1399,72 +1537,72 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>350</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1473,10 +1611,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1530,42 +1668,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>336</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -1583,42 +1721,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -1642,30 +1780,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>358</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2007,6 +2145,78 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2024,130 +2234,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2165,12 +2375,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2390,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2188,210 +2398,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2643,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2409,546 +2651,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2966,42 +3280,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3019,26 +3333,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3056,12 +3370,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="404">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -266,6 +266,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -521,18 +527,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1397,7 +1403,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-23T10:17:59-07:00</t>
+    <t>2025-11-19T14:36:22-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1537,72 +1543,72 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1668,42 +1674,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1721,42 +1727,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -1780,30 +1786,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2217,6 +2223,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2234,130 +2248,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2375,12 +2389,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2398,242 +2412,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2651,618 +2665,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3280,42 +3294,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3333,26 +3347,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3370,12 +3384,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="406">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -527,6 +527,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1403,7 +1409,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:36:22-08:00</t>
+    <t>2025-11-20T09:37:19-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1546,55 +1552,55 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
@@ -1602,7 +1608,7 @@
         <v>86</v>
       </c>
       <c r="V2" t="s" s="23">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1617,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1674,42 +1680,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1727,42 +1733,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -1786,30 +1792,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2372,6 +2378,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2389,12 +2403,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2412,242 +2426,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2665,474 +2679,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3140,143 +3154,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3294,42 +3308,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3347,26 +3361,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3384,12 +3398,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -1,135 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josefhardi/Documents/Code/dataset-metadata-spreadsheet/enhanced-srs/latest/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED11F8-620F-7C40-948F-CA3D6B68B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Enhanced SRS" r:id="rId3" sheetId="1"/>
-    <sheet name="dataset_type" r:id="rId4" sheetId="2"/>
-    <sheet name="analyte_class" r:id="rId5" sheetId="3"/>
-    <sheet name="is_targeted" r:id="rId6" sheetId="4"/>
-    <sheet name="acquisition_instrument_vendor" r:id="rId7" sheetId="5"/>
-    <sheet name="acquisition_instrument_model" r:id="rId8" sheetId="6"/>
-    <sheet name="source_storage_duration_unit" r:id="rId9" sheetId="7"/>
-    <sheet name="time_since_acquisition_instrume" r:id="rId10" sheetId="8"/>
-    <sheet name="is_image_preprocessing_required" r:id="rId11" sheetId="9"/>
-    <sheet name="tile_configuration" r:id="rId12" sheetId="10"/>
-    <sheet name="scan_direction" r:id="rId13" sheetId="11"/>
-    <sheet name=".metadata" r:id="rId14" sheetId="12"/>
+    <sheet name="Enhanced SRS" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset_type" sheetId="2" r:id="rId2"/>
+    <sheet name="analyte_class" sheetId="3" r:id="rId3"/>
+    <sheet name="is_targeted" sheetId="4" r:id="rId4"/>
+    <sheet name="acquisition_instrument_vendor" sheetId="5" r:id="rId5"/>
+    <sheet name="acquisition_instrument_model" sheetId="6" r:id="rId6"/>
+    <sheet name="source_storage_duration_unit" sheetId="7" r:id="rId7"/>
+    <sheet name="time_since_acquisition_instrume" sheetId="8" r:id="rId8"/>
+    <sheet name="is_image_preprocessing_required" sheetId="9" r:id="rId9"/>
+    <sheet name="tile_configuration" sheetId="10" r:id="rId10"/>
+    <sheet name="scan_direction" sheetId="11" r:id="rId11"/>
+    <sheet name=".metadata" sheetId="12" r:id="rId12"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>CEDAR Metadata Validator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
 block, section, or suspension) used to perform the assay. For instance, in an
 RNAseq assay, the parent sample would be the suspension, while in imaging
 assays, it would be the tissue section. If the assay is derived from multiple
 parent samples, this field should contain a comma-separated list of identifiers.
 Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>A locally assigned identifier provided by the data provider for the dataset. It
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>A locally assigned identifier provided by the data provider for the dataset. It
 is used to reference an external metadata record that may be maintained
 independently, enabling traceability and supporting provenance tracking.
 Example: Visium_9OLC_A4_S1</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>(Required) The DOI for the protocols.io page that details the assay or the
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The DOI for the protocols.io page that details the assay or the
 procedures used for sample procurement and preparation. For example, in the case
 of an imaging assay, the protocol may start with tissue section staining and end
 with the generation of an OME-TIFF file. The documented protocol should also
 include any image processing steps involved in producing the final OME-TIFF.
 Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>(Required) The analyte class which is the target molecule that the assay is
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The analyte class which is the target molecule that the assay is
 measuring. Example: DNA</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
 for detection or measurement by the assay. Example: Yes</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The company that manufactures or supplies the acquisition instrument.
 An acquisition instrument is a device equipped with signal detection hardware
 and signal processing software. It captures signals produced by assays, such as
 variations in light intensity or color, or signals corresponding to molecular
 mass. If the instrument was custom-built or developed internally, enter
 "In-House". Example: Illumina</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The specific model of the acquisition instrument, as manufacturers
 often offer various versions with differing features or sensitivities. These
 differences may be relevant to the processing or interpretation of the data. If
 the instrument was custom-built or developed internally, enter "In-House". If
 the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t>(Required) The length of time the sample was stored prior to processing it. For
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The length of time the sample was stored prior to processing it. For
 assays performed on tissue sections, this refers to how long the tissue section
 (e.g., slide) was stored before the assay began (e.g., imaging). For assays
 performed on suspensions, such as sequencing, it refers to how long the
 suspension was stored before library construction started. Example: 12</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>(Required) The unit of measurement used to specify the source storage duration
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The unit of measurement used to specify the source storage duration
 value. Example: hour</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t>The length of time since the acquisition instrument was last serviced or
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The length of time since the acquisition instrument was last serviced or
 calibrated. This provides a metric for assessing drift in data capture. Example:
 10</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t>The unit of measurement used to specify the time since acquisition instrument
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The unit of measurement used to specify the time since acquisition instrument
 calibration value. Example: month</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The name of the file containing the ORCID IDs for all contributors to
 this dataset. Example: ./contributors.csv</t>
+        </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>(Required) The top-level directory containing the raw and/or processed data. For
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The top-level directory containing the raw and/or processed data. For
 a single dataset upload, this might be represented as ".", whereas for a data
 upload containing multiple datasets, this would be the directory name for the
 respective dataset. For example, if the data is within a directory named
@@ -137,60 +269,133 @@
 multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
 "Pass2" is the subdirectory where the single dataset's data is stored. This is
 an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
+        </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t>Indicates whether image preprocessing is necessary based on the type of
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Indicates whether image preprocessing is necessary based on the type of
 acquisition instrument used, such as a microscope or slide scanner. This may
 involve steps like fusing image tiles to assemble the complete image. Example:
 Yes</t>
+        </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
-        <t>The unique identifier assigned to each slide, enabling users to determine which
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The unique identifier assigned to each slide, enabling users to determine which
 tissue sections were processed together on the same slide. It is recommended
 that data providers prefix the ID with the center name to prevent overlapping
 values across different centers. Example: VAN0071-PA-1-1_AF</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t>The configuration of tiles used for stitching in the assay process. If no tile
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The configuration of tiles used for stitching in the assay process. If no tile
 configuration is applicable, enter "Not applicable". Example: Row-by-row</t>
+        </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t>The direction of imaging, which is necessary for the stitching process. Example:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The direction of imaging, which is necessary for the stitching process. Example:
 Left-and-down</t>
+        </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t>The number of columns used in the stitching process of a tiled image, often
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The number of columns used in the stitching process of a tiled image, often
 referred to as the grid size in the x-dimension. Example: 5</t>
+        </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t>The total number of raw tiled images captured, which are intended to be stitched
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The total number of raw tiled images captured, which are intended to be stitched
 together. Example: 75</t>
+        </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
-        <t>The intended percentage of overlap between tiled images. This value serves as
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The intended percentage of overlap between tiled images. This value serves as
 the set point, although slight variations may occur during image acquisition due
 to stage registration. Example: 5</t>
+        </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
-        <t>(Required) The unique string identifier for the metadata specification version,
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>(Required) The unique string identifier for the metadata specification version,
 which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -198,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="428">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -500,6 +705,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
   </si>
   <si>
+    <t>Raman Imaging</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000475</t>
+  </si>
+  <si>
     <t>RNAseq (with probes)</t>
   </si>
   <si>
@@ -512,6 +723,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>STARmap</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000476</t>
+  </si>
+  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -725,6 +942,12 @@
     <t>https://identifiers.org/RRID:SCR_023605</t>
   </si>
   <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024589</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
@@ -785,6 +1008,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Revvity</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027779</t>
+  </si>
+  <si>
     <t>Cytek Biosciences</t>
   </si>
   <si>
@@ -914,6 +1143,18 @@
     <t>https://identifiers.org/RRID:SCR_026452</t>
   </si>
   <si>
+    <t>DMi8</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026672</t>
+  </si>
+  <si>
+    <t>Opera Phenix Plus HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027780</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -956,6 +1197,12 @@
     <t>https://identifiers.org/RRID:SCR_027101</t>
   </si>
   <si>
+    <t>Orbitrap Fusion Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020559</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1082,6 +1329,18 @@
     <t>https://identifiers.org/RRID:SCR_027072</t>
   </si>
   <si>
+    <t>Opera Phenix HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027817</t>
+  </si>
+  <si>
+    <t>Zeiss LightSheet Z.1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020919</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1223,6 +1482,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>SYNAPT G2-Si</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027782</t>
+  </si>
+  <si>
     <t>Biomark HD</t>
   </si>
   <si>
@@ -1409,45 +1674,48 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-20T09:37:19-08:00</t>
+    <t>2026-01-14T11:46:17-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
   </si>
   <si>
     <t>https://repo.metadatacenter.org/templates/609c3adb-e65d-4124-bb1b-dd937f231850</t>
+  </si>
+  <si>
+    <t>Lipid + metabolite + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000478</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode=""/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1465,1948 +1733,2370 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="26.5625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="6.7421875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="14.3671875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="11.953125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="17.0234375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="14.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="26.59765625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="16.91796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>205</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>357</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>358</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>369</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>370</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>371</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>372</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>373</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>374</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>375</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>384</v>
-      </c>
-      <c r="S1" t="s" s="1">
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="P1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="Q1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="V1" t="s" s="1">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="D2" t="s" s="5">
+      <c r="R1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="V2" t="s" s="23">
-        <v>397</v>
+      <c r="V2" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$51</formula1>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" error="Value should be greater than 0" sqref="I2:I1001 U2:U1001 K2:K1001" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'is_targeted'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
-    </dataValidation>
-    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
-    </dataValidation>
-    <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'is_image_preprocessing_required'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'tile_configuration'!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'scan_direction'!$A$1:$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" error="Value should be greater than 1" sqref="S2:T1001" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>1</formula1>
-      <formula2/>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
-      <formula1>1</formula1>
-      <formula2/>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>dataset_type!$A$1:$A$53</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>analyte_class!$A$1:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>is_targeted!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>acquisition_instrument_vendor!$A$1:$A$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>acquisition_instrument_model!$A$1:$A$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>source_storage_duration_unit!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000008000000}">
+          <x14:formula1>
+            <xm:f>time_since_acquisition_instrume!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000009000000}">
+          <x14:formula1>
+            <xm:f>is_image_preprocessing_required!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+          <x14:formula1>
+            <xm:f>tile_configuration!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q1001</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+          <x14:formula1>
+            <xm:f>scan_direction!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R1001</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>376</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>378</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>380</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>382</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>383</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>385</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>387</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>389</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>391</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>392</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="70.0546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>398</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>400</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>402</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>401</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>403</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>405</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>111</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>127</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>129</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>131</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B16" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" location="HRAVS_0000478" xr:uid="{11DD7DDE-6105-2E43-BFD8-0A37D600F901}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>143</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>155</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>157</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>161</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>163</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>165</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>167</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>169</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>173</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>175</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>177</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>179</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>181</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>183</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>185</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>187</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>189</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>191</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B22" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>195</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>197</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>199</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>201</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>203</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B28" t="s">
         <v>204</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>214</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>216</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>218</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>222</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>224</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>228</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>230</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>232</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>236</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>238</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>240</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>242</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>244</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>246</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>248</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>250</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>252</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>254</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>256</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>258</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B23" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>260</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>262</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>264</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>266</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B27" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>268</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>270</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>272</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>274</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>276</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B32" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>278</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B33" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>280</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>282</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>284</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B36" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>286</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>288</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B38" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>290</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B39" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>292</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B40" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>294</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B41" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>296</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B42" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>298</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B43" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>300</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B44" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>302</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B45" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>304</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B46" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>306</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B47" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>308</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B48" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>310</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B49" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>312</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B50" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>314</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B51" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>316</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B52" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>318</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B53" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>320</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>322</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B55" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>340</v>
+      </c>
+      <c r="B64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B60" t="s" s="0">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>325</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>327</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>329</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>175</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>331</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>335</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>337</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>339</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>341</v>
-      </c>
-      <c r="B70" t="s" s="0">
+      <c r="B65" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>343</v>
       </c>
-      <c r="B71" t="s" s="0">
+      <c r="B66" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>345</v>
       </c>
-      <c r="B72" t="s" s="0">
+      <c r="B67" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>347</v>
       </c>
-      <c r="B73" t="s" s="0">
+      <c r="B68" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>349</v>
       </c>
-      <c r="B74" t="s" s="0">
+      <c r="B70" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>351</v>
       </c>
-      <c r="B75" t="s" s="0">
+      <c r="B71" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>353</v>
       </c>
-      <c r="B76" t="s" s="0">
+      <c r="B72" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>355</v>
       </c>
-      <c r="B77" t="s" s="0">
+      <c r="B73" t="s">
         <v>356</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>363</v>
+      </c>
+      <c r="B77" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>375</v>
+      </c>
+      <c r="B83" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>359</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>361</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>363</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>368</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>361</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>363</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>366</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>143</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/enhanced-srs/latest/enhanced-srs.xlsx
+++ b/enhanced-srs/latest/enhanced-srs.xlsx
@@ -1,267 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josefhardi/Documents/Code/dataset-metadata-spreadsheet/enhanced-srs/latest/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED11F8-620F-7C40-948F-CA3D6B68B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Enhanced SRS" sheetId="1" r:id="rId1"/>
-    <sheet name="dataset_type" sheetId="2" r:id="rId2"/>
-    <sheet name="analyte_class" sheetId="3" r:id="rId3"/>
-    <sheet name="is_targeted" sheetId="4" r:id="rId4"/>
-    <sheet name="acquisition_instrument_vendor" sheetId="5" r:id="rId5"/>
-    <sheet name="acquisition_instrument_model" sheetId="6" r:id="rId6"/>
-    <sheet name="source_storage_duration_unit" sheetId="7" r:id="rId7"/>
-    <sheet name="time_since_acquisition_instrume" sheetId="8" r:id="rId8"/>
-    <sheet name="is_image_preprocessing_required" sheetId="9" r:id="rId9"/>
-    <sheet name="tile_configuration" sheetId="10" r:id="rId10"/>
-    <sheet name="scan_direction" sheetId="11" r:id="rId11"/>
-    <sheet name=".metadata" sheetId="12" r:id="rId12"/>
+    <sheet name="Enhanced SRS" r:id="rId3" sheetId="1"/>
+    <sheet name="dataset_type" r:id="rId4" sheetId="2"/>
+    <sheet name="analyte_class" r:id="rId5" sheetId="3"/>
+    <sheet name="is_targeted" r:id="rId6" sheetId="4"/>
+    <sheet name="acquisition_instrument_vendor" r:id="rId7" sheetId="5"/>
+    <sheet name="acquisition_instrument_model" r:id="rId8" sheetId="6"/>
+    <sheet name="source_storage_duration_unit" r:id="rId9" sheetId="7"/>
+    <sheet name="time_since_acquisition_instrume" r:id="rId10" sheetId="8"/>
+    <sheet name="is_image_preprocessing_required" r:id="rId11" sheetId="9"/>
+    <sheet name="tile_configuration" r:id="rId12" sheetId="10"/>
+    <sheet name="scan_direction" r:id="rId13" sheetId="11"/>
+    <sheet name=".metadata" r:id="rId14" sheetId="12"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author/>
     <author>CEDAR Metadata Validator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
 block, section, or suspension) used to perform the assay. For instance, in an
 RNAseq assay, the parent sample would be the suspension, while in imaging
 assays, it would be the tissue section. If the assay is derived from multiple
 parent samples, this field should contain a comma-separated list of identifiers.
 Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>A locally assigned identifier provided by the data provider for the dataset. It
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
 is used to reference an external metadata record that may be maintained
 independently, enabling traceability and supporting provenance tracking.
 Example: Visium_9OLC_A4_S1</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The DOI for the protocols.io page that details the assay or the
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
 procedures used for sample procurement and preparation. For example, in the case
 of an imaging assay, the protocol may start with tissue section staining and end
 with the generation of an OME-TIFF file. The documented protocol should also
 include any image processing steps involved in producing the final OME-TIFF.
 Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
-        </r>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The analyte class which is the target molecule that the assay is
+        <t>(Required) The analyte class which is the target molecule that the assay is
 measuring. Example: DNA</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
 for detection or measurement by the assay. Example: Yes</t>
-        </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The company that manufactures or supplies the acquisition instrument.
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
 An acquisition instrument is a device equipped with signal detection hardware
 and signal processing software. It captures signals produced by assays, such as
 variations in light intensity or color, or signals corresponding to molecular
 mass. If the instrument was custom-built or developed internally, enter
 "In-House". Example: Illumina</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The specific model of the acquisition instrument, as manufacturers
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
 often offer various versions with differing features or sensitivities. These
 differences may be relevant to the processing or interpretation of the data. If
 the instrument was custom-built or developed internally, enter "In-House". If
 the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The length of time the sample was stored prior to processing it. For
+        <t>(Required) The length of time the sample was stored prior to processing it. For
 assays performed on tissue sections, this refers to how long the tissue section
 (e.g., slide) was stored before the assay began (e.g., imaging). For assays
 performed on suspensions, such as sequencing, it refers to how long the
 suspension was stored before library construction started. Example: 12</t>
-        </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The unit of measurement used to specify the source storage duration
+        <t>(Required) The unit of measurement used to specify the source storage duration
 value. Example: hour</t>
-        </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The length of time since the acquisition instrument was last serviced or
+        <t>The length of time since the acquisition instrument was last serviced or
 calibrated. This provides a metric for assessing drift in data capture. Example:
 10</t>
-        </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The unit of measurement used to specify the time since acquisition instrument
+        <t>The unit of measurement used to specify the time since acquisition instrument
 calibration value. Example: month</t>
-        </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
 this dataset. Example: ./contributors.csv</t>
-        </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="N1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The top-level directory containing the raw and/or processed data. For
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
 a single dataset upload, this might be represented as ".", whereas for a data
 upload containing multiple datasets, this would be the directory name for the
 respective dataset. For example, if the data is within a directory named
@@ -269,133 +137,75 @@
 multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
 "Pass2" is the subdirectory where the single dataset's data is stored. This is
 an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
-        </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="O1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Indicates whether image preprocessing is necessary based on the type of
+        <t>Indicates whether image preprocessing is necessary based on the type of
 acquisition instrument used, such as a microscope or slide scanner. This may
 involve steps like fusing image tiles to assemble the complete image. Example:
 Yes</t>
-        </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The unique identifier assigned to each slide, enabling users to determine which
+        <t>The unique identifier assigned to each slide, enabling users to determine which
 tissue sections were processed together on the same slide. It is recommended
 that data providers prefix the ID with the center name to prevent overlapping
 values across different centers. Example: VAN0071-PA-1-1_AF</t>
-        </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="Q1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The configuration of tiles used for stitching in the assay process. If no tile
+        <t>The configuration of tiles used for stitching in the assay process. If no tile
 configuration is applicable, enter "Not applicable". Example: Row-by-row</t>
-        </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="R1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The direction of imaging, which is necessary for the stitching process. Example:
+        <t>The direction of imaging, which is necessary for the stitching process. Example:
 Left-and-down</t>
-        </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="S1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The number of columns used in the stitching process of a tiled image, often
+        <t>The number of columns used in the stitching process of a tiled image, often
 referred to as the grid size in the x-dimension. Example: 5</t>
-        </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="T1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The total number of raw tiled images captured, which are intended to be stitched
+        <t>The total number of raw tiled images captured, which are intended to be stitched
 together. Example: 75</t>
-        </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="U1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>The intended percentage of overlap between tiled images. This value serves as
+        <t>The intended percentage of overlap between tiled images. This value serves as
 the set point, although slight variations may occur during image acquisition due
 to stage registration. Example: 5</t>
-        </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="V1" authorId="1">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>(Required) The unique string identifier for the metadata specification version,
+        <t>Specifies a semicolon-separated list of non-global files that are to be included
+in the dataset. The file paths assume that the files are located in the
+"TOP/non-global/" directory. For instance, if the file is located at
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson, the value for
+this field would be "./lab_processed/images/1-tissue-boundary.geojson". Once
+ingested, these files will be copied to their appropriate locations within the
+respective dataset directory tree. This field is intended for internal HuBMAP
+processing. Examples for GeoMx and PhenoCycler are provided in the File
+Locations documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee
+Example: ./lab_processed/images/1-tissue-boundary.geojson</t>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="1">
+      <text>
+        <t>(Required) The unique string identifier for the metadata specification version,
 which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -403,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="431">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -507,6 +317,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
+    <t>iCLAP</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000479</t>
+  </si>
+  <si>
     <t>seqFISH</t>
   </si>
   <si>
@@ -756,6 +572,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Lipid + metabolite + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000478</t>
+  </si>
+  <si>
     <t>RNA + protein</t>
   </si>
   <si>
@@ -1653,6 +1475,9 @@
     <t>intended_tile_overlap_percentage</t>
   </si>
   <si>
+    <t>non_global_files</t>
+  </si>
+  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1674,48 +1499,45 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2026-01-14T11:46:17-08:00</t>
+    <t>2026-01-29T11:19:49-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
   </si>
   <si>
     <t>https://repo.metadatacenter.org/templates/609c3adb-e65d-4124-bb1b-dd937f231850</t>
-  </si>
-  <si>
-    <t>Lipid + metabolite + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000478</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=""/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1733,2370 +1555,2049 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="26.5625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="11.953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="17.0234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="14.875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="26.59765625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="13.33984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="E1" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="K1" t="s" s="1">
         <v>393</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="L1" t="s" s="1">
         <v>394</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="M1" t="s" s="1">
         <v>395</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="N1" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>398</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="S1" t="s" s="1">
         <v>417</v>
       </c>
+      <c r="T1" t="s" s="1">
+        <v>418</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>419</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s" s="24">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" error="Value should be greater than 0" sqref="I2:I1001 U2:U1001 K2:K1001" xr:uid="{00000000-0002-0000-0000-000005000000}">
+  <dataValidations count="15">
+    <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'dataset_type'!$A$1:$A$54</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'analyte_class'!$A$1:$A$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'is_targeted'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$32</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'acquisition_instrument_model'!$A$1:$A$83</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
+      <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" error="Value should be greater than 1" sqref="S2:T1001" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'is_image_preprocessing_required'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'tile_configuration'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'scan_direction'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
       <formula1>1</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 1" showErrorMessage="true">
+      <formula1>1</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>dataset_type!$A$1:$A$53</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>analyte_class!$A$1:$A$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>is_targeted!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>acquisition_instrument_vendor!$A$1:$A$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>acquisition_instrument_model!$A$1:$A$83</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>source_storage_duration_unit!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000008000000}">
-          <x14:formula1>
-            <xm:f>time_since_acquisition_instrume!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-000009000000}">
-          <x14:formula1>
-            <xm:f>is_image_preprocessing_required!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2:O1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-          <x14:formula1>
-            <xm:f>tile_configuration!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q2:Q1001</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Validation Error" xr:uid="{00000000-0002-0000-0000-00000B000000}">
-          <x14:formula1>
-            <xm:f>scan_direction!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2:R1001</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" t="s" s="0">
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" t="s" s="0">
         <v>403</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B1" t="s" s="0">
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B2" t="s" s="0">
         <v>412</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="70.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>424</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" t="s">
-        <v>425</v>
+      <c r="B2" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44">
+      <c r="A44" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48">
+      <c r="A48" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51">
+      <c r="A51" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>109</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="48.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s" s="0">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="s" s="0">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" t="s" s="0">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" t="s" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" t="s" s="0">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" t="s" s="0">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B7" t="s" s="0">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" t="s" s="0">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B9" t="s" s="0">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B10" t="s" s="0">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" t="s" s="0">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B12" t="s" s="0">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B13" t="s" s="0">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B14" t="s" s="0">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B15" t="s" s="0">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B16" t="s" s="0">
         <v>144</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" location="HRAVS_0000478" xr:uid="{11DD7DDE-6105-2E43-BFD8-0A37D600F901}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>147</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B1" t="s" s="0">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" t="s" s="0">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" t="s" s="0">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B4" t="s" s="0">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B5" t="s" s="0">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B6" t="s" s="0">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B7" t="s" s="0">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" t="s" s="0">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B9" t="s" s="0">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B10" t="s" s="0">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" t="s" s="0">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B12" t="s" s="0">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B13" t="s" s="0">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B14" t="s" s="0">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B15" t="s" s="0">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B16" t="s" s="0">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B17" t="s" s="0">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B18" t="s" s="0">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B19" t="s" s="0">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B20" t="s" s="0">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B21" t="s" s="0">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B22" t="s" s="0">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B23" t="s" s="0">
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B24" t="s" s="0">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="25">
+      <c r="A25" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B25" t="s" s="0">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B26" t="s" s="0">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="27">
+      <c r="A27" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B27" t="s" s="0">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="28">
+      <c r="A28" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B28" t="s" s="0">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="29">
+      <c r="A29" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B29" t="s" s="0">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="30">
+      <c r="A30" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B30" t="s" s="0">
         <v>212</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B1" t="s" s="0">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" t="s" s="0">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" t="s" s="0">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B4" t="s" s="0">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B5" t="s" s="0">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B6" t="s" s="0">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B7" t="s" s="0">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" t="s" s="0">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B9" t="s" s="0">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B10" t="s" s="0">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" t="s" s="0">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B12" t="s" s="0">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B13" t="s" s="0">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="14">
+      <c r="A14" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B14" t="s" s="0">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B15" t="s" s="0">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="16">
+      <c r="A16" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B16" t="s" s="0">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="17">
+      <c r="A17" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B17" t="s" s="0">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B18" t="s" s="0">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="19">
+      <c r="A19" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B19" t="s" s="0">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B20" t="s" s="0">
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="21">
+      <c r="A21" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B21" t="s" s="0">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B22" t="s" s="0">
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B23" t="s" s="0">
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B24" t="s" s="0">
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="25">
+      <c r="A25" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B25" t="s" s="0">
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B26" t="s" s="0">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="27">
+      <c r="A27" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B27" t="s" s="0">
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="28">
+      <c r="A28" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B28" t="s" s="0">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="29">
+      <c r="A29" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B29" t="s" s="0">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="30">
+      <c r="A30" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B30" t="s" s="0">
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="31">
+      <c r="A31" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B31" t="s" s="0">
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="32">
+      <c r="A32" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B32" t="s" s="0">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="33">
+      <c r="A33" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B33" t="s" s="0">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="34">
+      <c r="A34" t="s" s="0">
         <v>284</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B34" t="s" s="0">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="35">
+      <c r="A35" t="s" s="0">
         <v>286</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B35" t="s" s="0">
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="36">
+      <c r="A36" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B36" t="s" s="0">
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="37">
+      <c r="A37" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B37" t="s" s="0">
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="38">
+      <c r="A38" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B38" t="s" s="0">
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="39">
+      <c r="A39" t="s" s="0">
         <v>294</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B39" t="s" s="0">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="40">
+      <c r="A40" t="s" s="0">
         <v>296</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B40" t="s" s="0">
         <v>297</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="41">
+      <c r="A41" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B41" t="s" s="0">
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="42">
+      <c r="A42" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B42" t="s" s="0">
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="43">
+      <c r="A43" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B43" t="s" s="0">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="44">
+      <c r="A44" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B44" t="s" s="0">
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="45">
+      <c r="A45" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B45" t="s" s="0">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="46">
+      <c r="A46" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B46" t="s" s="0">
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="47">
+      <c r="A47" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B47" t="s" s="0">
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="48">
+      <c r="A48" t="s" s="0">
         <v>312</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B48" t="s" s="0">
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="49">
+      <c r="A49" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B49" t="s" s="0">
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>316</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B50" t="s" s="0">
         <v>317</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="51">
+      <c r="A51" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B51" t="s" s="0">
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="52">
+      <c r="A52" t="s" s="0">
         <v>320</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B52" t="s" s="0">
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="53">
+      <c r="A53" t="s" s="0">
         <v>322</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B53" t="s" s="0">
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="54">
+      <c r="A54" t="s" s="0">
         <v>324</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B54" t="s" s="0">
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="55">
+      <c r="A55" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B55" t="s" s="0">
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="56">
+      <c r="A56" t="s" s="0">
         <v>328</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B56" t="s" s="0">
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="57">
+      <c r="A57" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B57" t="s" s="0">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="58">
+      <c r="A58" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B58" t="s" s="0">
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="59">
+      <c r="A59" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B59" t="s" s="0">
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="60">
+      <c r="A60" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B60" t="s" s="0">
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="61">
+      <c r="A61" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B61" t="s" s="0">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="62">
+      <c r="A62" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B62" t="s" s="0">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="63">
+      <c r="A63" t="s" s="0">
         <v>342</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B63" t="s" s="0">
         <v>343</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
         <v>344</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B64" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="66">
+      <c r="A66" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B66" t="s" s="0">
         <v>348</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="67">
+      <c r="A67" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B67" t="s" s="0">
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="68">
+      <c r="A68" t="s" s="0">
         <v>351</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B68" t="s" s="0">
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B70" t="s" s="0">
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="71">
+      <c r="A71" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B71" t="s" s="0">
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="72">
+      <c r="A72" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B72" t="s" s="0">
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="73">
+      <c r="A73" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B73" t="s" s="0">
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="74">
+      <c r="A74" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B74" t="s" s="0">
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="75">
+      <c r="A75" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B75" t="s" s="0">
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="76">
+      <c r="A76" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B76" t="s" s="0">
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="77">
+      <c r="A77" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B77" t="s" s="0">
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="78">
+      <c r="A78" t="s" s="0">
         <v>369</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B78" t="s" s="0">
         <v>370</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="79">
+      <c r="A79" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B79" t="s" s="0">
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="80">
+      <c r="A80" t="s" s="0">
         <v>373</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B80" t="s" s="0">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="81">
+      <c r="A81" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B81" t="s" s="0">
         <v>376</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B1" t="s" s="0">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" t="s" s="0">
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B3" t="s" s="0">
         <v>388</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B1" t="s" s="0">
         <v>386</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>147</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>